--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H2">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I2">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J2">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +564,22 @@
         <v>6.933894</v>
       </c>
       <c r="O2">
-        <v>0.8122763614007963</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P2">
-        <v>0.8638687058964239</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q2">
-        <v>1.702683158476667</v>
+        <v>1.081420894297334</v>
       </c>
       <c r="R2">
-        <v>15.32414842629</v>
+        <v>9.732788048675999</v>
       </c>
       <c r="S2">
-        <v>0.07370843583396251</v>
+        <v>0.03791522047759166</v>
       </c>
       <c r="T2">
-        <v>0.08177141359569745</v>
+        <v>0.03854982143004776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H3">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I3">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J3">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.02434666666666667</v>
+        <v>0.0527795</v>
       </c>
       <c r="N3">
-        <v>0.07303999999999999</v>
+        <v>0.105559</v>
       </c>
       <c r="O3">
-        <v>0.008556327142686945</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P3">
-        <v>0.009099788701510982</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q3">
-        <v>0.01793566182222222</v>
+        <v>0.02469471876433333</v>
       </c>
       <c r="R3">
-        <v>0.1614209564</v>
+        <v>0.148168312586</v>
       </c>
       <c r="S3">
-        <v>0.0007764272360253302</v>
+        <v>0.0008658106307352185</v>
       </c>
       <c r="T3">
-        <v>0.0008613607374196577</v>
+        <v>0.0005868680138944165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7366783333333333</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H4">
-        <v>2.210035</v>
+        <v>0.45002</v>
       </c>
       <c r="I4">
-        <v>0.09074305167129323</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J4">
-        <v>0.09465722399429256</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5098130000000001</v>
+        <v>2.311298</v>
       </c>
       <c r="N4">
-        <v>1.019626</v>
+        <v>6.933894</v>
       </c>
       <c r="O4">
-        <v>0.1791673114565167</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P4">
-        <v>0.1270315054020652</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q4">
-        <v>0.3755681911516667</v>
+        <v>0.3467101086533333</v>
       </c>
       <c r="R4">
-        <v>2.25340914691</v>
+        <v>3.12039097788</v>
       </c>
       <c r="S4">
-        <v>0.01625818860130538</v>
+        <v>0.01215585003093768</v>
       </c>
       <c r="T4">
-        <v>0.01202444966117547</v>
+        <v>0.01235930695167762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,45 +732,45 @@
         <v>0.45002</v>
       </c>
       <c r="I5">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J5">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.311298</v>
+        <v>0.0527795</v>
       </c>
       <c r="N5">
-        <v>6.933894</v>
+        <v>0.105559</v>
       </c>
       <c r="O5">
-        <v>0.8122763614007963</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P5">
-        <v>0.8638687058964239</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q5">
-        <v>0.3467101086533333</v>
+        <v>0.007917276863333333</v>
       </c>
       <c r="R5">
-        <v>3.12039097788</v>
+        <v>0.04750366118</v>
       </c>
       <c r="S5">
-        <v>0.01500893438067714</v>
+        <v>0.000277584148261226</v>
       </c>
       <c r="T5">
-        <v>0.01665076414913599</v>
+        <v>0.0001881534506457897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1500066666666666</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H6">
-        <v>0.45002</v>
+        <v>17.920163</v>
       </c>
       <c r="I6">
-        <v>0.01847762054135585</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J6">
-        <v>0.0192746467553281</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.02434666666666667</v>
+        <v>2.311298</v>
       </c>
       <c r="N6">
-        <v>0.07303999999999999</v>
+        <v>6.933894</v>
       </c>
       <c r="O6">
-        <v>0.008556327142686945</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P6">
-        <v>0.009099788701510982</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q6">
-        <v>0.00365216231111111</v>
+        <v>13.80627896719134</v>
       </c>
       <c r="R6">
-        <v>0.03286946079999999</v>
+        <v>124.256510704722</v>
       </c>
       <c r="S6">
-        <v>0.0001581005661702729</v>
+        <v>0.4840558507576515</v>
       </c>
       <c r="T6">
-        <v>0.0001753952127697499</v>
+        <v>0.4921576710837208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1500066666666666</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H7">
-        <v>0.45002</v>
+        <v>17.920163</v>
       </c>
       <c r="I7">
-        <v>0.01847762054135585</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J7">
-        <v>0.0192746467553281</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.5098130000000001</v>
+        <v>0.0527795</v>
       </c>
       <c r="N7">
-        <v>1.019626</v>
+        <v>0.105559</v>
       </c>
       <c r="O7">
-        <v>0.1791673114565167</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P7">
-        <v>0.1270315054020652</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q7">
-        <v>0.07647534875333334</v>
+        <v>0.3152724143528334</v>
       </c>
       <c r="R7">
-        <v>0.45885209252</v>
+        <v>1.891634486117</v>
       </c>
       <c r="S7">
-        <v>0.003310585594508435</v>
+        <v>0.01105362691226465</v>
       </c>
       <c r="T7">
-        <v>0.002448487393422359</v>
+        <v>0.007492423680247561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,22 +906,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.208283999999999</v>
+        <v>0.3289195</v>
       </c>
       <c r="H8">
-        <v>9.624851999999999</v>
+        <v>0.657839</v>
       </c>
       <c r="I8">
-        <v>0.3951921315112882</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J8">
-        <v>0.4122386168888342</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,27 +936,27 @@
         <v>6.933894</v>
       </c>
       <c r="O8">
-        <v>0.8122763614007963</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P8">
-        <v>0.8638687058964239</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q8">
-        <v>7.415300392632</v>
+        <v>0.7602309825110001</v>
       </c>
       <c r="R8">
-        <v>66.73770353368799</v>
+        <v>4.561385895066</v>
       </c>
       <c r="S8">
-        <v>0.3210052266382142</v>
+        <v>0.02665412280066001</v>
       </c>
       <c r="T8">
-        <v>0.3561200404922889</v>
+        <v>0.01806682842048054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.208283999999999</v>
+        <v>0.3289195</v>
       </c>
       <c r="H9">
-        <v>9.624851999999999</v>
+        <v>0.657839</v>
       </c>
       <c r="I9">
-        <v>0.3951921315112882</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J9">
-        <v>0.4122386168888342</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.02434666666666667</v>
+        <v>0.0527795</v>
       </c>
       <c r="N9">
-        <v>0.07303999999999999</v>
+        <v>0.105559</v>
       </c>
       <c r="O9">
-        <v>0.008556327142686945</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P9">
-        <v>0.009099788701510982</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q9">
-        <v>0.07811102111999998</v>
+        <v>0.01736020675025</v>
       </c>
       <c r="R9">
-        <v>0.7029991900799999</v>
+        <v>0.06944082700099999</v>
       </c>
       <c r="S9">
-        <v>0.003381393161426344</v>
+        <v>0.0006086585435358985</v>
       </c>
       <c r="T9">
-        <v>0.003751284308291527</v>
+        <v>0.0002750426154823689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.208283999999999</v>
+        <v>5.144583</v>
       </c>
       <c r="H10">
-        <v>9.624851999999999</v>
+        <v>15.433749</v>
       </c>
       <c r="I10">
-        <v>0.3951921315112882</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J10">
-        <v>0.4122386168888342</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5098130000000001</v>
+        <v>2.311298</v>
       </c>
       <c r="N10">
-        <v>1.019626</v>
+        <v>6.933894</v>
       </c>
       <c r="O10">
-        <v>0.1791673114565167</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P10">
-        <v>0.1270315054020652</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q10">
-        <v>1.635624890892</v>
+        <v>11.890664398734</v>
       </c>
       <c r="R10">
-        <v>9.813749345352001</v>
+        <v>107.015979588606</v>
       </c>
       <c r="S10">
-        <v>0.07080551171164769</v>
+        <v>0.4168933342054451</v>
       </c>
       <c r="T10">
-        <v>0.05236729208825382</v>
+        <v>0.4238710308567341</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.0070985</v>
+        <v>5.144583</v>
       </c>
       <c r="H11">
-        <v>2.014197</v>
+        <v>15.433749</v>
       </c>
       <c r="I11">
-        <v>0.1240530460697436</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J11">
-        <v>0.08626935618559531</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>2.311298</v>
+        <v>0.0527795</v>
       </c>
       <c r="N11">
-        <v>6.933894</v>
+        <v>0.105559</v>
       </c>
       <c r="O11">
-        <v>0.8122763614007963</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P11">
-        <v>0.8638687058964239</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q11">
-        <v>2.327704748853001</v>
+        <v>0.2715285184485</v>
       </c>
       <c r="R11">
-        <v>13.966228493118</v>
+        <v>1.629171110691</v>
       </c>
       <c r="S11">
-        <v>0.1007653568822167</v>
+        <v>0.009519941492917091</v>
       </c>
       <c r="T11">
-        <v>0.07452539708656787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.0070985</v>
-      </c>
-      <c r="H12">
-        <v>2.014197</v>
-      </c>
-      <c r="I12">
-        <v>0.1240530460697436</v>
-      </c>
-      <c r="J12">
-        <v>0.08626935618559531</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.02434666666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.07303999999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.008556327142686945</v>
-      </c>
-      <c r="P12">
-        <v>0.009099788701510982</v>
-      </c>
-      <c r="Q12">
-        <v>0.02451949148</v>
-      </c>
-      <c r="R12">
-        <v>0.14711694888</v>
-      </c>
-      <c r="S12">
-        <v>0.001061438445219541</v>
-      </c>
-      <c r="T12">
-        <v>0.0007850329127043067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.0070985</v>
-      </c>
-      <c r="H13">
-        <v>2.014197</v>
-      </c>
-      <c r="I13">
-        <v>0.1240530460697436</v>
-      </c>
-      <c r="J13">
-        <v>0.08626935618559531</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5098130000000001</v>
-      </c>
-      <c r="N13">
-        <v>1.019626</v>
-      </c>
-      <c r="O13">
-        <v>0.1791673114565167</v>
-      </c>
-      <c r="P13">
-        <v>0.1270315054020652</v>
-      </c>
-      <c r="Q13">
-        <v>0.5134319075805002</v>
-      </c>
-      <c r="R13">
-        <v>2.053727630322001</v>
-      </c>
-      <c r="S13">
-        <v>0.02222625074230736</v>
-      </c>
-      <c r="T13">
-        <v>0.01095892618632313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3.016221666666667</v>
-      </c>
-      <c r="H14">
-        <v>9.048665</v>
-      </c>
-      <c r="I14">
-        <v>0.3715341502063192</v>
-      </c>
-      <c r="J14">
-        <v>0.3875601561759498</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.311298</v>
-      </c>
-      <c r="N14">
-        <v>6.933894</v>
-      </c>
-      <c r="O14">
-        <v>0.8122763614007963</v>
-      </c>
-      <c r="P14">
-        <v>0.8638687058964239</v>
-      </c>
-      <c r="Q14">
-        <v>6.971387105723334</v>
-      </c>
-      <c r="R14">
-        <v>62.74248395151</v>
-      </c>
-      <c r="S14">
-        <v>0.3017884076657258</v>
-      </c>
-      <c r="T14">
-        <v>0.3348010905727337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3.016221666666667</v>
-      </c>
-      <c r="H15">
-        <v>9.048665</v>
-      </c>
-      <c r="I15">
-        <v>0.3715341502063192</v>
-      </c>
-      <c r="J15">
-        <v>0.3875601561759498</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.02434666666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.07303999999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.008556327142686945</v>
-      </c>
-      <c r="P15">
-        <v>0.009099788701510982</v>
-      </c>
-      <c r="Q15">
-        <v>0.0734349435111111</v>
-      </c>
-      <c r="R15">
-        <v>0.6609144915999999</v>
-      </c>
-      <c r="S15">
-        <v>0.003178967733845457</v>
-      </c>
-      <c r="T15">
-        <v>0.00352671553032574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.016221666666667</v>
-      </c>
-      <c r="H16">
-        <v>9.048665</v>
-      </c>
-      <c r="I16">
-        <v>0.3715341502063192</v>
-      </c>
-      <c r="J16">
-        <v>0.3875601561759498</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.5098130000000001</v>
-      </c>
-      <c r="N16">
-        <v>1.019626</v>
-      </c>
-      <c r="O16">
-        <v>0.1791673114565167</v>
-      </c>
-      <c r="P16">
-        <v>0.1270315054020652</v>
-      </c>
-      <c r="Q16">
-        <v>1.537709016548334</v>
-      </c>
-      <c r="R16">
-        <v>9.226254099290001</v>
-      </c>
-      <c r="S16">
-        <v>0.06656677480674786</v>
-      </c>
-      <c r="T16">
-        <v>0.04923235007289039</v>
+        <v>0.006452853497069034</v>
       </c>
     </row>
   </sheetData>
